--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T01:19:57+00:00</t>
+    <t>2021-11-16T04:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T04:51:36+00:00</t>
+    <t>2021-11-17T13:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T13:47:01+00:00</t>
+    <t>2021-11-18T22:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T22:04:47+00:00</t>
+    <t>2021-11-19T00:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:04:47+00:00</t>
+    <t>2021-11-19T00:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:13:18+00:00</t>
+    <t>2021-11-19T18:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:00:23+00:00</t>
+    <t>2021-11-19T18:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:02:16+00:00</t>
+    <t>2021-11-19T21:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T21:14:24+00:00</t>
+    <t>2021-11-22T14:07:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:07:32+00:00</t>
+    <t>2021-11-22T14:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:10:59+00:00</t>
+    <t>2021-11-23T21:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T21:25:23+00:00</t>
+    <t>2021-11-24T19:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T19:02:36+00:00</t>
+    <t>2021-11-24T22:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T22:31:44+00:00</t>
+    <t>2021-11-30T21:05:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T21:05:25+00:00</t>
+    <t>2021-12-08T16:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T16:36:19+00:00</t>
+    <t>2021-12-14T20:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T20:47:31+00:00</t>
+    <t>2022-03-11T19:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:19:27+00:00</t>
+    <t>2022-03-11T19:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:55:52+00:00</t>
+    <t>2022-04-11T17:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:12:20+00:00</t>
+    <t>2022-04-12T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:10:33+00:00</t>
+    <t>2022-05-18T17:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T17:38:26+00:00</t>
+    <t>2022-05-18T18:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:03:18+00:00</t>
+    <t>2022-05-18T18:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:24:05+00:00</t>
+    <t>2022-05-18T18:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:38:41+00:00</t>
+    <t>2022-05-18T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:56:15+00:00</t>
+    <t>2022-05-18T19:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:09:53+00:00</t>
+    <t>2022-05-18T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:16:13+00:00</t>
+    <t>2022-05-18T19:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:30:31+00:00</t>
+    <t>2022-05-18T19:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:33:24+00:00</t>
+    <t>2022-05-19T03:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:16:26+00:00</t>
+    <t>2022-05-19T05:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:06:22+00:00</t>
+    <t>2022-05-19T05:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:30:54+00:00</t>
+    <t>2022-07-20T15:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:49:15+00:00</t>
+    <t>2022-07-20T15:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:55:58+00:00</t>
+    <t>2022-07-26T14:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T14:00:32+00:00</t>
+    <t>2022-11-10T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T16:33:20+00:00</t>
+    <t>2022-11-13T16:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T16:06:14+00:00</t>
+    <t>2022-11-16T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:22:04+00:00</t>
+    <t>2022-11-16T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:33:27+00:00</t>
+    <t>2022-12-09T19:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T19:20:55+00:00</t>
+    <t>2022-12-09T21:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T21:34:05+00:00</t>
+    <t>2023-01-23T16:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:13:19+00:00</t>
+    <t>2023-01-27T17:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T17:12:17+00:00</t>
+    <t>2023-01-30T21:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:30:05+00:00</t>
+    <t>2023-02-09T16:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T16:19:35+00:00</t>
+    <t>2023-02-14T19:15:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T19:15:12+00:00</t>
+    <t>2023-02-20T18:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:51:53+00:00</t>
+    <t>2023-02-20T18:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:59:33+00:00</t>
+    <t>2023-02-20T19:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T19:32:51+00:00</t>
+    <t>2023-02-21T11:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:59:56+00:00</t>
+    <t>2023-02-21T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T12:43:59+00:00</t>
+    <t>2023-02-28T17:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T17:04:12+00:00</t>
+    <t>2023-03-09T16:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:02:20+00:00</t>
+    <t>2023-03-09T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:05:10+00:00</t>
+    <t>2023-03-09T21:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T21:27:23+00:00</t>
+    <t>2023-03-10T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:30:38+00:00</t>
+    <t>2023-03-10T16:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:37:58+00:00</t>
+    <t>2023-03-10T16:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:43:52+00:00</t>
+    <t>2023-03-16T01:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:14:24+00:00</t>
+    <t>2023-03-16T01:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:23:31+00:00</t>
+    <t>2023-03-21T11:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T11:43:18+00:00</t>
+    <t>2023-04-04T14:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T14:29:08+00:00</t>
+    <t>2023-05-30T18:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T18:28:01+00:00</t>
+    <t>2023-07-19T14:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -227,10 +227,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:01:19+00:00</t>
+    <t>2023-08-02T16:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:54:26+00:00</t>
+    <t>2023-10-18T17:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:21:54+00:00</t>
+    <t>2023-11-09T20:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-qc-ethnicity.xlsx
+++ b/ig/ValueSet-qc-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
